--- a/BASE.xlsx
+++ b/BASE.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Melissa Palermo\Documents\ME810\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
@@ -22,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12757" uniqueCount="1129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12757" uniqueCount="1128">
   <si>
     <t>id</t>
   </si>
@@ -3274,9 +3269,6 @@
   </si>
   <si>
     <t>SOUSAS</t>
-  </si>
-  <si>
-    <t>JARDIM GUANABARA</t>
   </si>
   <si>
     <t>BOTAFOGO</t>
@@ -3504,7 +3496,7 @@
     </a:clrScheme>
     <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3539,7 +3531,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3750,8 +3742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V833"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D481" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="D744" sqref="D744"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3899,7 +3891,7 @@
         <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="E3" t="s">
         <v>39</v>
@@ -7330,7 +7322,7 @@
         <v>303</v>
       </c>
       <c r="D64" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="E64" t="s">
         <v>39</v>
@@ -7392,7 +7384,7 @@
         <v>307</v>
       </c>
       <c r="D65" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E65" t="s">
         <v>39</v>
@@ -7445,7 +7437,7 @@
         <v>310</v>
       </c>
       <c r="D66" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E66" t="s">
         <v>39</v>
@@ -7678,7 +7670,7 @@
         <v>325</v>
       </c>
       <c r="D70" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E70" t="s">
         <v>39</v>
@@ -7796,7 +7788,7 @@
         <v>332</v>
       </c>
       <c r="D72" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="E72" t="s">
         <v>39</v>
@@ -7852,7 +7844,7 @@
         <v>335</v>
       </c>
       <c r="D73" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E73" t="s">
         <v>39</v>
@@ -7911,7 +7903,7 @@
         <v>338</v>
       </c>
       <c r="D74" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E74" t="s">
         <v>39</v>
@@ -7970,7 +7962,7 @@
         <v>341</v>
       </c>
       <c r="D75" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="E75" t="s">
         <v>39</v>
@@ -8029,7 +8021,7 @@
         <v>344</v>
       </c>
       <c r="D76" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="E76" t="s">
         <v>39</v>
@@ -8082,7 +8074,7 @@
         <v>347</v>
       </c>
       <c r="D77" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="E77" t="s">
         <v>97</v>
@@ -8194,7 +8186,7 @@
         <v>356</v>
       </c>
       <c r="D79" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E79" t="s">
         <v>39</v>
@@ -8433,7 +8425,7 @@
         <v>370</v>
       </c>
       <c r="D83" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="E83" t="s">
         <v>39</v>
@@ -8548,7 +8540,7 @@
         <v>377</v>
       </c>
       <c r="D85" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="E85" t="s">
         <v>48</v>
@@ -8610,7 +8602,7 @@
         <v>385</v>
       </c>
       <c r="D86" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="E86" t="s">
         <v>39</v>
@@ -8669,7 +8661,7 @@
         <v>389</v>
       </c>
       <c r="D87" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E87" t="s">
         <v>39</v>
@@ -8728,7 +8720,7 @@
         <v>394</v>
       </c>
       <c r="D88" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="E88" t="s">
         <v>39</v>
@@ -8784,7 +8776,7 @@
         <v>398</v>
       </c>
       <c r="D89" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="E89" t="s">
         <v>39</v>
@@ -8902,7 +8894,7 @@
         <v>406</v>
       </c>
       <c r="D91" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="E91" t="s">
         <v>39</v>
@@ -8964,7 +8956,7 @@
         <v>411</v>
       </c>
       <c r="D92" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="E92" t="s">
         <v>39</v>
@@ -9023,7 +9015,7 @@
         <v>415</v>
       </c>
       <c r="D93" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E93" t="s">
         <v>48</v>
@@ -9076,7 +9068,7 @@
         <v>420</v>
       </c>
       <c r="D94" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="E94" t="s">
         <v>39</v>
@@ -9135,7 +9127,7 @@
         <v>424</v>
       </c>
       <c r="D95" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E95" t="s">
         <v>39</v>
@@ -9244,7 +9236,7 @@
         <v>430</v>
       </c>
       <c r="D97" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E97" t="s">
         <v>39</v>
@@ -9300,7 +9292,7 @@
         <v>434</v>
       </c>
       <c r="D98" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="E98" t="s">
         <v>48</v>
@@ -9689,7 +9681,7 @@
         <v>460</v>
       </c>
       <c r="D105" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="E105" t="s">
         <v>39</v>
@@ -9745,7 +9737,7 @@
         <v>463</v>
       </c>
       <c r="D106" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="E106" t="s">
         <v>39</v>
@@ -9801,7 +9793,7 @@
         <v>466</v>
       </c>
       <c r="D107" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E107" t="s">
         <v>39</v>
@@ -9857,7 +9849,7 @@
         <v>469</v>
       </c>
       <c r="D108" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="E108" t="s">
         <v>39</v>
@@ -10196,7 +10188,7 @@
         <v>489</v>
       </c>
       <c r="D114" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E114" t="s">
         <v>322</v>
@@ -10252,7 +10244,7 @@
         <v>493</v>
       </c>
       <c r="D115" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E115" t="s">
         <v>48</v>
@@ -10314,7 +10306,7 @@
         <v>500</v>
       </c>
       <c r="D116" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E116" t="s">
         <v>39</v>
@@ -10423,7 +10415,7 @@
         <v>506</v>
       </c>
       <c r="D118" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E118" t="s">
         <v>39</v>
@@ -10482,7 +10474,7 @@
         <v>510</v>
       </c>
       <c r="D119" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="E119" t="s">
         <v>39</v>
@@ -10541,7 +10533,7 @@
         <v>513</v>
       </c>
       <c r="D120" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="E120" t="s">
         <v>97</v>
@@ -10600,7 +10592,7 @@
         <v>519</v>
       </c>
       <c r="D121" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="E121" t="s">
         <v>97</v>
@@ -10771,7 +10763,7 @@
         <v>532</v>
       </c>
       <c r="D124" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="E124" t="s">
         <v>39</v>
@@ -11231,7 +11223,7 @@
         <v>38</v>
       </c>
       <c r="D132" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="E132" t="s">
         <v>39</v>
@@ -11287,7 +11279,7 @@
         <v>460</v>
       </c>
       <c r="D133" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="E133" t="s">
         <v>39</v>
@@ -11399,7 +11391,7 @@
         <v>500</v>
       </c>
       <c r="D135" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E135" t="s">
         <v>39</v>
@@ -12339,7 +12331,7 @@
         <v>307</v>
       </c>
       <c r="D152" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E152" t="s">
         <v>39</v>
@@ -12395,7 +12387,7 @@
         <v>562</v>
       </c>
       <c r="D153" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="E153" t="s">
         <v>48</v>
@@ -12687,7 +12679,7 @@
         <v>513</v>
       </c>
       <c r="D158" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="E158" t="s">
         <v>97</v>
@@ -12799,7 +12791,7 @@
         <v>573</v>
       </c>
       <c r="D160" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="E160" t="s">
         <v>48</v>
@@ -12852,7 +12844,7 @@
         <v>577</v>
       </c>
       <c r="D161" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="E161" t="s">
         <v>322</v>
@@ -13916,7 +13908,7 @@
         <v>469</v>
       </c>
       <c r="D180" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="E180" t="s">
         <v>39</v>
@@ -14028,7 +14020,7 @@
         <v>466</v>
       </c>
       <c r="D182" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E182" t="s">
         <v>39</v>
@@ -14603,7 +14595,7 @@
         <v>303</v>
       </c>
       <c r="D192" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="E192" t="s">
         <v>39</v>
@@ -14665,7 +14657,7 @@
         <v>310</v>
       </c>
       <c r="D193" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E193" t="s">
         <v>39</v>
@@ -14783,7 +14775,7 @@
         <v>510</v>
       </c>
       <c r="D195" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="E195" t="s">
         <v>39</v>
@@ -15119,7 +15111,7 @@
         <v>489</v>
       </c>
       <c r="D201" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E201" t="s">
         <v>322</v>
@@ -15175,7 +15167,7 @@
         <v>325</v>
       </c>
       <c r="D202" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E202" t="s">
         <v>39</v>
@@ -15293,7 +15285,7 @@
         <v>341</v>
       </c>
       <c r="D204" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="E204" t="s">
         <v>39</v>
@@ -15405,7 +15397,7 @@
         <v>356</v>
       </c>
       <c r="D206" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E206" t="s">
         <v>39</v>
@@ -15467,7 +15459,7 @@
         <v>335</v>
       </c>
       <c r="D207" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E207" t="s">
         <v>39</v>
@@ -15526,7 +15518,7 @@
         <v>338</v>
       </c>
       <c r="D208" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E208" t="s">
         <v>39</v>
@@ -15585,7 +15577,7 @@
         <v>344</v>
       </c>
       <c r="D209" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="E209" t="s">
         <v>39</v>
@@ -15806,7 +15798,7 @@
         <v>370</v>
       </c>
       <c r="D213" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="E213" t="s">
         <v>39</v>
@@ -15859,7 +15851,7 @@
         <v>613</v>
       </c>
       <c r="D214" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="E214" t="s">
         <v>48</v>
@@ -15915,7 +15907,7 @@
         <v>347</v>
       </c>
       <c r="D215" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="E215" t="s">
         <v>97</v>
@@ -15971,7 +15963,7 @@
         <v>332</v>
       </c>
       <c r="D216" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="E216" t="s">
         <v>39</v>
@@ -16027,7 +16019,7 @@
         <v>434</v>
       </c>
       <c r="D217" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="E217" t="s">
         <v>48</v>
@@ -16089,7 +16081,7 @@
         <v>377</v>
       </c>
       <c r="D218" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="E218" t="s">
         <v>48</v>
@@ -16151,7 +16143,7 @@
         <v>406</v>
       </c>
       <c r="D219" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="E219" t="s">
         <v>39</v>
@@ -16213,7 +16205,7 @@
         <v>394</v>
       </c>
       <c r="D220" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="E220" t="s">
         <v>39</v>
@@ -16269,7 +16261,7 @@
         <v>415</v>
       </c>
       <c r="D221" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E221" t="s">
         <v>48</v>
@@ -16322,7 +16314,7 @@
         <v>411</v>
       </c>
       <c r="D222" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="E222" t="s">
         <v>39</v>
@@ -16381,7 +16373,7 @@
         <v>424</v>
       </c>
       <c r="D223" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E223" t="s">
         <v>39</v>
@@ -16434,7 +16426,7 @@
         <v>430</v>
       </c>
       <c r="D224" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E224" t="s">
         <v>39</v>
@@ -16490,7 +16482,7 @@
         <v>398</v>
       </c>
       <c r="D225" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="E225" t="s">
         <v>39</v>
@@ -16549,7 +16541,7 @@
         <v>420</v>
       </c>
       <c r="D226" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="E226" t="s">
         <v>39</v>
@@ -16670,7 +16662,7 @@
         <v>385</v>
       </c>
       <c r="D228" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="E228" t="s">
         <v>39</v>
@@ -16729,7 +16721,7 @@
         <v>389</v>
       </c>
       <c r="D229" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E229" t="s">
         <v>39</v>
@@ -16959,7 +16951,7 @@
         <v>519</v>
       </c>
       <c r="D233" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="E233" t="s">
         <v>97</v>
@@ -17239,7 +17231,7 @@
         <v>463</v>
       </c>
       <c r="D238" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="E238" t="s">
         <v>39</v>
@@ -17354,7 +17346,7 @@
         <v>493</v>
       </c>
       <c r="D240" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E240" t="s">
         <v>48</v>
@@ -17531,7 +17523,7 @@
         <v>506</v>
       </c>
       <c r="D243" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E243" t="s">
         <v>39</v>
@@ -18003,7 +17995,7 @@
         <v>38</v>
       </c>
       <c r="D251" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="E251" t="s">
         <v>39</v>
@@ -18572,7 +18564,7 @@
         <v>500</v>
       </c>
       <c r="D261" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E261" t="s">
         <v>39</v>
@@ -19291,7 +19283,7 @@
         <v>577</v>
       </c>
       <c r="D274" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="E274" t="s">
         <v>322</v>
@@ -19857,7 +19849,7 @@
         <v>513</v>
       </c>
       <c r="D284" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="E284" t="s">
         <v>97</v>
@@ -19972,7 +19964,7 @@
         <v>573</v>
       </c>
       <c r="D286" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="E286" t="s">
         <v>48</v>
@@ -21281,7 +21273,7 @@
         <v>303</v>
       </c>
       <c r="D309" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="E309" t="s">
         <v>39</v>
@@ -21343,7 +21335,7 @@
         <v>510</v>
       </c>
       <c r="D310" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="E310" t="s">
         <v>39</v>
@@ -21402,7 +21394,7 @@
         <v>310</v>
       </c>
       <c r="D311" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E311" t="s">
         <v>39</v>
@@ -21514,7 +21506,7 @@
         <v>489</v>
       </c>
       <c r="D313" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E313" t="s">
         <v>322</v>
@@ -21573,7 +21565,7 @@
         <v>341</v>
       </c>
       <c r="D314" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="E314" t="s">
         <v>39</v>
@@ -21632,7 +21624,7 @@
         <v>398</v>
       </c>
       <c r="D315" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="E315" t="s">
         <v>39</v>
@@ -21750,7 +21742,7 @@
         <v>420</v>
       </c>
       <c r="D317" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="E317" t="s">
         <v>39</v>
@@ -21809,7 +21801,7 @@
         <v>307</v>
       </c>
       <c r="D318" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E318" t="s">
         <v>39</v>
@@ -21924,7 +21916,7 @@
         <v>325</v>
       </c>
       <c r="D320" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E320" t="s">
         <v>39</v>
@@ -22154,7 +22146,7 @@
         <v>347</v>
       </c>
       <c r="D324" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="E324" t="s">
         <v>97</v>
@@ -22210,7 +22202,7 @@
         <v>370</v>
       </c>
       <c r="D325" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="E325" t="s">
         <v>39</v>
@@ -22263,7 +22255,7 @@
         <v>332</v>
       </c>
       <c r="D326" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="E326" t="s">
         <v>39</v>
@@ -22319,7 +22311,7 @@
         <v>344</v>
       </c>
       <c r="D327" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="E327" t="s">
         <v>39</v>
@@ -22372,7 +22364,7 @@
         <v>415</v>
       </c>
       <c r="D328" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E328" t="s">
         <v>48</v>
@@ -22478,7 +22470,7 @@
         <v>356</v>
       </c>
       <c r="D330" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E330" t="s">
         <v>39</v>
@@ -22599,7 +22591,7 @@
         <v>338</v>
       </c>
       <c r="D332" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E332" t="s">
         <v>39</v>
@@ -22776,7 +22768,7 @@
         <v>406</v>
       </c>
       <c r="D335" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="E335" t="s">
         <v>39</v>
@@ -22838,7 +22830,7 @@
         <v>411</v>
       </c>
       <c r="D336" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="E336" t="s">
         <v>39</v>
@@ -22950,7 +22942,7 @@
         <v>394</v>
       </c>
       <c r="D338" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="E338" t="s">
         <v>39</v>
@@ -23068,7 +23060,7 @@
         <v>434</v>
       </c>
       <c r="D340" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="E340" t="s">
         <v>48</v>
@@ -23130,7 +23122,7 @@
         <v>430</v>
       </c>
       <c r="D341" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E341" t="s">
         <v>39</v>
@@ -23186,7 +23178,7 @@
         <v>460</v>
       </c>
       <c r="D342" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="E342" t="s">
         <v>39</v>
@@ -23242,7 +23234,7 @@
         <v>469</v>
       </c>
       <c r="D343" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="E343" t="s">
         <v>39</v>
@@ -23301,7 +23293,7 @@
         <v>335</v>
       </c>
       <c r="D344" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E344" t="s">
         <v>39</v>
@@ -23519,7 +23511,7 @@
         <v>424</v>
       </c>
       <c r="D348" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E348" t="s">
         <v>39</v>
@@ -23628,7 +23620,7 @@
         <v>466</v>
       </c>
       <c r="D350" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E350" t="s">
         <v>39</v>
@@ -23749,7 +23741,7 @@
         <v>385</v>
       </c>
       <c r="D352" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="E352" t="s">
         <v>39</v>
@@ -23929,7 +23921,7 @@
         <v>389</v>
       </c>
       <c r="D355" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E355" t="s">
         <v>39</v>
@@ -24159,7 +24151,7 @@
         <v>377</v>
       </c>
       <c r="D359" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="E359" t="s">
         <v>48</v>
@@ -24519,7 +24511,7 @@
         <v>532</v>
       </c>
       <c r="D365" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="E365" t="s">
         <v>39</v>
@@ -24572,7 +24564,7 @@
         <v>613</v>
       </c>
       <c r="D366" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="E366" t="s">
         <v>48</v>
@@ -24687,7 +24679,7 @@
         <v>519</v>
       </c>
       <c r="D368" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="E368" t="s">
         <v>97</v>
@@ -24973,7 +24965,7 @@
         <v>463</v>
       </c>
       <c r="D373" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="E373" t="s">
         <v>39</v>
@@ -25088,7 +25080,7 @@
         <v>493</v>
       </c>
       <c r="D375" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E375" t="s">
         <v>48</v>
@@ -25150,7 +25142,7 @@
         <v>562</v>
       </c>
       <c r="D376" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="E376" t="s">
         <v>48</v>
@@ -25321,7 +25313,7 @@
         <v>506</v>
       </c>
       <c r="D379" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E379" t="s">
         <v>39</v>
@@ -25678,7 +25670,7 @@
         <v>38</v>
       </c>
       <c r="D385" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="E385" t="s">
         <v>39</v>
@@ -26359,7 +26351,7 @@
         <v>500</v>
       </c>
       <c r="D397" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E397" t="s">
         <v>39</v>
@@ -26415,7 +26407,7 @@
         <v>344</v>
       </c>
       <c r="D398" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="E398" t="s">
         <v>39</v>
@@ -27025,7 +27017,7 @@
         <v>577</v>
       </c>
       <c r="D409" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="E409" t="s">
         <v>322</v>
@@ -27759,7 +27751,7 @@
         <v>513</v>
       </c>
       <c r="D422" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="E422" t="s">
         <v>97</v>
@@ -27936,7 +27928,7 @@
         <v>573</v>
       </c>
       <c r="D425" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="E425" t="s">
         <v>48</v>
@@ -28048,7 +28040,7 @@
         <v>370</v>
       </c>
       <c r="D427" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="E427" t="s">
         <v>39</v>
@@ -28219,7 +28211,7 @@
         <v>532</v>
       </c>
       <c r="D430" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="E430" t="s">
         <v>39</v>
@@ -28664,7 +28656,7 @@
         <v>398</v>
       </c>
       <c r="D438" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="E438" t="s">
         <v>39</v>
@@ -28782,7 +28774,7 @@
         <v>489</v>
       </c>
       <c r="D440" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E440" t="s">
         <v>322</v>
@@ -29068,7 +29060,7 @@
         <v>303</v>
       </c>
       <c r="D445" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="E445" t="s">
         <v>39</v>
@@ -29130,7 +29122,7 @@
         <v>310</v>
       </c>
       <c r="D446" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E446" t="s">
         <v>39</v>
@@ -29251,7 +29243,7 @@
         <v>332</v>
       </c>
       <c r="D448" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="E448" t="s">
         <v>39</v>
@@ -29307,7 +29299,7 @@
         <v>347</v>
       </c>
       <c r="D449" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="E449" t="s">
         <v>97</v>
@@ -29363,7 +29355,7 @@
         <v>356</v>
       </c>
       <c r="D450" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E450" t="s">
         <v>39</v>
@@ -29425,7 +29417,7 @@
         <v>307</v>
       </c>
       <c r="D451" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E451" t="s">
         <v>39</v>
@@ -29540,7 +29532,7 @@
         <v>415</v>
       </c>
       <c r="D453" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E453" t="s">
         <v>48</v>
@@ -29649,7 +29641,7 @@
         <v>420</v>
       </c>
       <c r="D455" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="E455" t="s">
         <v>39</v>
@@ -29823,7 +29815,7 @@
         <v>325</v>
       </c>
       <c r="D458" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E458" t="s">
         <v>39</v>
@@ -29882,7 +29874,7 @@
         <v>338</v>
       </c>
       <c r="D459" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E459" t="s">
         <v>39</v>
@@ -29944,7 +29936,7 @@
         <v>385</v>
       </c>
       <c r="D460" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="E460" t="s">
         <v>39</v>
@@ -30003,7 +29995,7 @@
         <v>394</v>
       </c>
       <c r="D461" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="E461" t="s">
         <v>39</v>
@@ -30171,7 +30163,7 @@
         <v>406</v>
       </c>
       <c r="D464" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="E464" t="s">
         <v>39</v>
@@ -30292,7 +30284,7 @@
         <v>411</v>
       </c>
       <c r="D466" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="E466" t="s">
         <v>39</v>
@@ -30531,7 +30523,7 @@
         <v>460</v>
       </c>
       <c r="D470" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="E470" t="s">
         <v>39</v>
@@ -30587,7 +30579,7 @@
         <v>466</v>
       </c>
       <c r="D471" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E471" t="s">
         <v>39</v>
@@ -30646,7 +30638,7 @@
         <v>335</v>
       </c>
       <c r="D472" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E472" t="s">
         <v>39</v>
@@ -30708,7 +30700,7 @@
         <v>469</v>
       </c>
       <c r="D473" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="E473" t="s">
         <v>39</v>
@@ -31103,7 +31095,7 @@
         <v>389</v>
       </c>
       <c r="D480" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E480" t="s">
         <v>39</v>
@@ -31165,7 +31157,7 @@
         <v>613</v>
       </c>
       <c r="D481" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="E481" t="s">
         <v>48</v>
@@ -31392,7 +31384,7 @@
         <v>377</v>
       </c>
       <c r="D485" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="E485" t="s">
         <v>48</v>
@@ -31631,7 +31623,7 @@
         <v>519</v>
       </c>
       <c r="D489" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="E489" t="s">
         <v>97</v>
@@ -31690,7 +31682,7 @@
         <v>430</v>
       </c>
       <c r="D490" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E490" t="s">
         <v>39</v>
@@ -31746,7 +31738,7 @@
         <v>434</v>
       </c>
       <c r="D491" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="E491" t="s">
         <v>48</v>
@@ -32097,7 +32089,7 @@
         <v>341</v>
       </c>
       <c r="D497" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="E497" t="s">
         <v>39</v>
@@ -32389,7 +32381,7 @@
         <v>424</v>
       </c>
       <c r="D502" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E502" t="s">
         <v>39</v>
@@ -32734,7 +32726,7 @@
         <v>727</v>
       </c>
       <c r="D508" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="E508" t="s">
         <v>48</v>
@@ -32970,7 +32962,7 @@
         <v>463</v>
       </c>
       <c r="D512" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="E512" t="s">
         <v>39</v>
@@ -33144,7 +33136,7 @@
         <v>493</v>
       </c>
       <c r="D515" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E515" t="s">
         <v>48</v>
@@ -33206,7 +33198,7 @@
         <v>562</v>
       </c>
       <c r="D516" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="E516" t="s">
         <v>48</v>
@@ -33380,7 +33372,7 @@
         <v>506</v>
       </c>
       <c r="D519" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E519" t="s">
         <v>39</v>
@@ -33442,7 +33434,7 @@
         <v>510</v>
       </c>
       <c r="D520" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="E520" t="s">
         <v>39</v>
@@ -33843,7 +33835,7 @@
         <v>430</v>
       </c>
       <c r="D527" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E527" t="s">
         <v>39</v>
@@ -34014,7 +34006,7 @@
         <v>500</v>
       </c>
       <c r="D530" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E530" t="s">
         <v>39</v>
@@ -34235,7 +34227,7 @@
         <v>332</v>
       </c>
       <c r="D534" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="E534" t="s">
         <v>39</v>
@@ -34851,7 +34843,7 @@
         <v>463</v>
       </c>
       <c r="D545" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="E545" t="s">
         <v>39</v>
@@ -35081,7 +35073,7 @@
         <v>307</v>
       </c>
       <c r="D549" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E549" t="s">
         <v>39</v>
@@ -35196,7 +35188,7 @@
         <v>38</v>
       </c>
       <c r="D551" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="E551" t="s">
         <v>39</v>
@@ -35252,7 +35244,7 @@
         <v>727</v>
       </c>
       <c r="D552" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="E552" t="s">
         <v>48</v>
@@ -35597,7 +35589,7 @@
         <v>577</v>
       </c>
       <c r="D558" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="E558" t="s">
         <v>322</v>
@@ -35656,7 +35648,7 @@
         <v>344</v>
       </c>
       <c r="D559" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="E559" t="s">
         <v>39</v>
@@ -35824,7 +35816,7 @@
         <v>493</v>
       </c>
       <c r="D562" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E562" t="s">
         <v>48</v>
@@ -35886,7 +35878,7 @@
         <v>562</v>
       </c>
       <c r="D563" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="E563" t="s">
         <v>48</v>
@@ -36104,7 +36096,7 @@
         <v>573</v>
       </c>
       <c r="D567" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="E567" t="s">
         <v>48</v>
@@ -36219,7 +36211,7 @@
         <v>370</v>
       </c>
       <c r="D569" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="E569" t="s">
         <v>39</v>
@@ -36272,7 +36264,7 @@
         <v>303</v>
       </c>
       <c r="D570" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="E570" t="s">
         <v>39</v>
@@ -36334,7 +36326,7 @@
         <v>310</v>
       </c>
       <c r="D571" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E571" t="s">
         <v>39</v>
@@ -36626,7 +36618,7 @@
         <v>356</v>
       </c>
       <c r="D576" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E576" t="s">
         <v>39</v>
@@ -36750,7 +36742,7 @@
         <v>398</v>
       </c>
       <c r="D578" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="E578" t="s">
         <v>39</v>
@@ -36868,7 +36860,7 @@
         <v>489</v>
       </c>
       <c r="D580" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E580" t="s">
         <v>322</v>
@@ -37042,7 +37034,7 @@
         <v>420</v>
       </c>
       <c r="D583" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="E583" t="s">
         <v>39</v>
@@ -37101,7 +37093,7 @@
         <v>415</v>
       </c>
       <c r="D584" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E584" t="s">
         <v>48</v>
@@ -37219,7 +37211,7 @@
         <v>411</v>
       </c>
       <c r="D586" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="E586" t="s">
         <v>39</v>
@@ -37278,7 +37270,7 @@
         <v>389</v>
       </c>
       <c r="D587" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E587" t="s">
         <v>39</v>
@@ -37561,7 +37553,7 @@
         <v>325</v>
       </c>
       <c r="D592" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E592" t="s">
         <v>39</v>
@@ -37915,7 +37907,7 @@
         <v>341</v>
       </c>
       <c r="D598" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="E598" t="s">
         <v>39</v>
@@ -37974,7 +37966,7 @@
         <v>469</v>
       </c>
       <c r="D599" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="E599" t="s">
         <v>39</v>
@@ -38201,7 +38193,7 @@
         <v>519</v>
       </c>
       <c r="D603" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="E603" t="s">
         <v>97</v>
@@ -38667,7 +38659,7 @@
         <v>424</v>
       </c>
       <c r="D611" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E611" t="s">
         <v>39</v>
@@ -39186,7 +39178,7 @@
         <v>406</v>
       </c>
       <c r="D620" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="E620" t="s">
         <v>39</v>
@@ -39481,7 +39473,7 @@
         <v>753</v>
       </c>
       <c r="D625" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="E625" t="s">
         <v>39</v>
@@ -39534,7 +39526,7 @@
         <v>755</v>
       </c>
       <c r="D626" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E626" t="s">
         <v>39</v>
@@ -39708,7 +39700,7 @@
         <v>460</v>
       </c>
       <c r="D629" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="E629" t="s">
         <v>39</v>
@@ -39764,7 +39756,7 @@
         <v>613</v>
       </c>
       <c r="D630" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="E630" t="s">
         <v>48</v>
@@ -39820,7 +39812,7 @@
         <v>434</v>
       </c>
       <c r="D631" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="E631" t="s">
         <v>48</v>
@@ -39882,7 +39874,7 @@
         <v>757</v>
       </c>
       <c r="D632" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E632" t="s">
         <v>39</v>
@@ -39941,7 +39933,7 @@
         <v>335</v>
       </c>
       <c r="D633" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E633" t="s">
         <v>39</v>
@@ -40168,7 +40160,7 @@
         <v>385</v>
       </c>
       <c r="D637" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="E637" t="s">
         <v>39</v>
@@ -40525,7 +40517,7 @@
         <v>347</v>
       </c>
       <c r="D643" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="E643" t="s">
         <v>97</v>
@@ -40640,7 +40632,7 @@
         <v>377</v>
       </c>
       <c r="D645" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="E645" t="s">
         <v>48</v>
@@ -40991,7 +40983,7 @@
         <v>513</v>
       </c>
       <c r="D651" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="E651" t="s">
         <v>97</v>
@@ -41112,7 +41104,7 @@
         <v>506</v>
       </c>
       <c r="D653" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E653" t="s">
         <v>39</v>
@@ -41174,7 +41166,7 @@
         <v>510</v>
       </c>
       <c r="D654" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="E654" t="s">
         <v>39</v>
@@ -41416,7 +41408,7 @@
         <v>760</v>
       </c>
       <c r="D658" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E658" t="s">
         <v>48</v>
@@ -41478,7 +41470,7 @@
         <v>762</v>
       </c>
       <c r="D659" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="E659" t="s">
         <v>48</v>
@@ -41587,7 +41579,7 @@
         <v>769</v>
       </c>
       <c r="D661" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="E661" t="s">
         <v>48</v>
@@ -41643,7 +41635,7 @@
         <v>713</v>
       </c>
       <c r="D662" t="s">
-        <v>714</v>
+        <v>1075</v>
       </c>
       <c r="E662" t="s">
         <v>39</v>
@@ -41699,7 +41691,7 @@
         <v>774</v>
       </c>
       <c r="D663" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="E663" t="s">
         <v>48</v>
@@ -41752,7 +41744,7 @@
         <v>778</v>
       </c>
       <c r="D664" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="E664" t="s">
         <v>48</v>
@@ -41811,7 +41803,7 @@
         <v>781</v>
       </c>
       <c r="D665" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="E665" t="s">
         <v>48</v>
@@ -41867,7 +41859,7 @@
         <v>784</v>
       </c>
       <c r="D666" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E666" t="s">
         <v>48</v>
@@ -41926,7 +41918,7 @@
         <v>788</v>
       </c>
       <c r="D667" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="E667" t="s">
         <v>48</v>
@@ -42035,7 +42027,7 @@
         <v>794</v>
       </c>
       <c r="D669" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="E669" t="s">
         <v>48</v>
@@ -42433,7 +42425,7 @@
         <v>338</v>
       </c>
       <c r="D676" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E676" t="s">
         <v>39</v>
@@ -42542,7 +42534,7 @@
         <v>38</v>
       </c>
       <c r="D678" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="E678" t="s">
         <v>39</v>
@@ -43199,7 +43191,7 @@
         <v>500</v>
       </c>
       <c r="D690" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E690" t="s">
         <v>39</v>
@@ -43255,7 +43247,7 @@
         <v>344</v>
       </c>
       <c r="D691" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="E691" t="s">
         <v>39</v>
@@ -43865,7 +43857,7 @@
         <v>562</v>
       </c>
       <c r="D702" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="E702" t="s">
         <v>48</v>
@@ -43918,7 +43910,7 @@
         <v>577</v>
       </c>
       <c r="D703" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="E703" t="s">
         <v>322</v>
@@ -44681,7 +44673,7 @@
         <v>513</v>
       </c>
       <c r="D717" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="E717" t="s">
         <v>97</v>
@@ -44852,7 +44844,7 @@
         <v>573</v>
       </c>
       <c r="D720" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="E720" t="s">
         <v>48</v>
@@ -44949,7 +44941,7 @@
         <v>370</v>
       </c>
       <c r="D722" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="E722" t="s">
         <v>39</v>
@@ -45120,7 +45112,7 @@
         <v>753</v>
       </c>
       <c r="D725" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="E725" t="s">
         <v>39</v>
@@ -45173,7 +45165,7 @@
         <v>506</v>
       </c>
       <c r="D726" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E726" t="s">
         <v>39</v>
@@ -45733,7 +45725,7 @@
         <v>398</v>
       </c>
       <c r="D736" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="E736" t="s">
         <v>39</v>
@@ -45845,7 +45837,7 @@
         <v>489</v>
       </c>
       <c r="D738" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E738" t="s">
         <v>322</v>
@@ -46072,7 +46064,7 @@
         <v>510</v>
       </c>
       <c r="D742" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="E742" t="s">
         <v>39</v>
@@ -46190,7 +46182,7 @@
         <v>303</v>
       </c>
       <c r="D744" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="E744" t="s">
         <v>39</v>
@@ -46252,7 +46244,7 @@
         <v>310</v>
       </c>
       <c r="D745" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E745" t="s">
         <v>39</v>
@@ -46373,7 +46365,7 @@
         <v>332</v>
       </c>
       <c r="D747" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="E747" t="s">
         <v>39</v>
@@ -46429,7 +46421,7 @@
         <v>347</v>
       </c>
       <c r="D748" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="E748" t="s">
         <v>97</v>
@@ -46485,7 +46477,7 @@
         <v>356</v>
       </c>
       <c r="D749" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E749" t="s">
         <v>39</v>
@@ -46547,7 +46539,7 @@
         <v>307</v>
       </c>
       <c r="D750" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E750" t="s">
         <v>39</v>
@@ -46603,7 +46595,7 @@
         <v>463</v>
       </c>
       <c r="D751" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="E751" t="s">
         <v>39</v>
@@ -46709,7 +46701,7 @@
         <v>415</v>
       </c>
       <c r="D753" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E753" t="s">
         <v>48</v>
@@ -46815,7 +46807,7 @@
         <v>420</v>
       </c>
       <c r="D755" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="E755" t="s">
         <v>39</v>
@@ -46989,7 +46981,7 @@
         <v>325</v>
       </c>
       <c r="D758" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E758" t="s">
         <v>39</v>
@@ -47051,7 +47043,7 @@
         <v>338</v>
       </c>
       <c r="D759" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E759" t="s">
         <v>39</v>
@@ -47113,7 +47105,7 @@
         <v>385</v>
       </c>
       <c r="D760" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="E760" t="s">
         <v>39</v>
@@ -47284,7 +47276,7 @@
         <v>406</v>
       </c>
       <c r="D763" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="E763" t="s">
         <v>39</v>
@@ -47405,7 +47397,7 @@
         <v>411</v>
       </c>
       <c r="D765" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="E765" t="s">
         <v>39</v>
@@ -47635,7 +47627,7 @@
         <v>460</v>
       </c>
       <c r="D769" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="E769" t="s">
         <v>39</v>
@@ -47679,7 +47671,7 @@
         <v>757</v>
       </c>
       <c r="D770" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E770" t="s">
         <v>39</v>
@@ -47729,7 +47721,7 @@
         <v>335</v>
       </c>
       <c r="D771" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="E771" t="s">
         <v>39</v>
@@ -47785,7 +47777,7 @@
         <v>469</v>
       </c>
       <c r="D772" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="E772" t="s">
         <v>39</v>
@@ -48103,7 +48095,7 @@
         <v>389</v>
       </c>
       <c r="D778" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E778" t="s">
         <v>39</v>
@@ -48165,7 +48157,7 @@
         <v>613</v>
       </c>
       <c r="D779" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="E779" t="s">
         <v>48</v>
@@ -48442,7 +48434,7 @@
         <v>377</v>
       </c>
       <c r="D784" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="E784" t="s">
         <v>48</v>
@@ -48725,7 +48717,7 @@
         <v>519</v>
       </c>
       <c r="D789" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="E789" t="s">
         <v>97</v>
@@ -48784,7 +48776,7 @@
         <v>430</v>
       </c>
       <c r="D790" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E790" t="s">
         <v>39</v>
@@ -48828,7 +48820,7 @@
         <v>434</v>
       </c>
       <c r="D791" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="E791" t="s">
         <v>48</v>
@@ -48937,7 +48929,7 @@
         <v>760</v>
       </c>
       <c r="D793" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E793" t="s">
         <v>48</v>
@@ -49214,7 +49206,7 @@
         <v>341</v>
       </c>
       <c r="D798" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="E798" t="s">
         <v>39</v>
@@ -49385,7 +49377,7 @@
         <v>493</v>
       </c>
       <c r="D801" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E801" t="s">
         <v>48</v>
@@ -49562,7 +49554,7 @@
         <v>424</v>
       </c>
       <c r="D804" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E804" t="s">
         <v>39</v>
@@ -49886,7 +49878,7 @@
         <v>727</v>
       </c>
       <c r="D810" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="E810" t="s">
         <v>48</v>
@@ -50048,7 +50040,7 @@
         <v>755</v>
       </c>
       <c r="D813" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E813" t="s">
         <v>39</v>
@@ -50104,7 +50096,7 @@
         <v>762</v>
       </c>
       <c r="D814" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="E814" t="s">
         <v>48</v>
@@ -50210,7 +50202,7 @@
         <v>769</v>
       </c>
       <c r="D816" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="E816" t="s">
         <v>48</v>
@@ -50266,7 +50258,7 @@
         <v>774</v>
       </c>
       <c r="D817" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="E817" t="s">
         <v>48</v>
@@ -50319,7 +50311,7 @@
         <v>778</v>
       </c>
       <c r="D818" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="E818" t="s">
         <v>48</v>
@@ -50366,7 +50358,7 @@
         <v>781</v>
       </c>
       <c r="D819" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="E819" t="s">
         <v>48</v>
@@ -50478,7 +50470,7 @@
         <v>784</v>
       </c>
       <c r="D821" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E821" t="s">
         <v>48</v>
@@ -50537,7 +50529,7 @@
         <v>788</v>
       </c>
       <c r="D822" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="E822" t="s">
         <v>48</v>
@@ -50646,7 +50638,7 @@
         <v>794</v>
       </c>
       <c r="D824" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="E824" t="s">
         <v>48</v>
@@ -50811,7 +50803,7 @@
         <v>921</v>
       </c>
       <c r="D827" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="E827" t="s">
         <v>322</v>
@@ -51138,7 +51130,7 @@
         <v>942</v>
       </c>
       <c r="D833" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E833" t="s">
         <v>322</v>

--- a/BASE.xlsx
+++ b/BASE.xlsx
@@ -3742,8 +3742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V833"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="D744" sqref="D744"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/BASE.xlsx
+++ b/BASE.xlsx
@@ -3742,8 +3742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V833"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="D744" sqref="D744"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
